--- a/media/quotation/御見積書.xlsx
+++ b/media/quotation/御見積書.xlsx
@@ -17,13 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>御見積書</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>株式会社○○○○○御中　</t>
   </si>
   <si>
     <t>下記の通り御見積申し上げます。</t>
@@ -228,6 +225,46 @@
     <t>７．その他</t>
   </si>
   <si>
+    <t>月末締め翌月末支払</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>件名 ：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>{$PROJECT_NAME$}</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１．業務内容</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{$PROJECT_DESCRIPTION$}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{$START_DATE$} ～ {$END_DATE$}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{$ADDRESS$}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>４．開発場所</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
       <t>①</t>
     </r>
@@ -257,81 +294,40 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>{$ITEM_NAME$}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　　　　基本単価：￥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>{$ITEM_PRICE$}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>人/月</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月末締め翌月末支払</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>超過精算：{$ITEM_PLUS$} 控除精算：{$ITEM_MINUS$}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>件名 ：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>{$PROJECT_NAME$}</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>１．業務内容</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{$PROJECT_DESCRIPTION$}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{$START_DATE$} ～ {$END_DATE$}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{$ADDRESS$}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>４．開発場所</t>
+      <t/>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{$ITEM_NAME$}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{$CLIENT_COMPANY_NAME$}御中　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本単価：</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>￥{$ITEM_PRICE$}人/月</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>超過精算：</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{$ITEM_PLUS$}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>控除精算：</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{$ITEM_MINUS$}</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -474,7 +470,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -565,13 +561,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -608,17 +641,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,94 +974,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="G6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="G7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="G8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="G9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -1019,212 +1076,226 @@
     </row>
     <row r="16" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-    </row>
-    <row r="26" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-    </row>
-    <row r="27" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-    </row>
-    <row r="28" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="C29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-    </row>
-    <row r="30" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="C30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="1:9" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-    </row>
-    <row r="31" spans="1:9" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
+      <c r="C31" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A18:I18"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
@@ -1233,11 +1304,6 @@
     <mergeCell ref="C30:I30"/>
     <mergeCell ref="C31:I31"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="D1:F1"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B27"/>
@@ -1246,7 +1312,12 @@
     <mergeCell ref="C25:I25"/>
     <mergeCell ref="C26:I26"/>
     <mergeCell ref="C27:I27"/>
-    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/media/quotation/御見積書.xlsx
+++ b/media/quotation/御見積書.xlsx
@@ -265,27 +265,40 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>①</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>技術者：</t>
+    <t>{$ITEM_NAME$}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{$CLIENT_COMPANY_NAME$}御中　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本単価：</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>￥{$ITEM_PRICE$}人/月</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>超過精算：</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{$ITEM_PLUS$}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>控除精算：</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{$ITEM_MINUS$}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>①技術者：</t>
     </r>
     <r>
       <rPr>
@@ -298,44 +311,12 @@
     </r>
     <phoneticPr fontId="2"/>
   </si>
-  <si>
-    <t>{$ITEM_NAME$}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{$CLIENT_COMPANY_NAME$}御中　</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本単価：</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>￥{$ITEM_PRICE$}人/月</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>超過精算：</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{$ITEM_PLUS$}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>控除精算：</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{$ITEM_MINUS$}</t>
-    <phoneticPr fontId="2"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,12 +429,6 @@
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -604,7 +579,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -642,26 +617,26 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -670,6 +645,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -974,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:I19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -987,11 +965,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H2" s="3" t="s">
@@ -1005,7 +983,7 @@
     </row>
     <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1087,23 +1065,23 @@
     </row>
     <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="14"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="19" t="s">
         <v>32</v>
       </c>
@@ -1115,185 +1093,185 @@
       <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="14"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="12" t="s">
+      <c r="D22" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="E22" s="14"/>
+      <c r="F22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="13" t="s">
+      <c r="G22" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="16"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
+      <c r="I23" s="15"/>
     </row>
     <row r="24" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="22"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
     <row r="26" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="I26" s="15"/>
     </row>
     <row r="27" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14" t="s">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
     </row>
     <row r="29" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
     </row>
     <row r="30" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="16">
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="A29:B29"/>
@@ -1309,15 +1287,7 @@
     <mergeCell ref="A21:B27"/>
     <mergeCell ref="C19:I19"/>
     <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
     <mergeCell ref="C27:I27"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/media/quotation/御見積書.xlsx
+++ b/media/quotation/御見積書.xlsx
@@ -26,32 +26,6 @@
     <t>下記の通り御見積申し上げます。</t>
   </si>
   <si>
-    <r>
-      <t>No</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>．</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Century"/>
-        <family val="1"/>
-      </rPr>
-      <t>xxxxxxxxxxx</t>
-    </r>
-  </si>
-  <si>
     <t>平成○年○月○日</t>
   </si>
   <si>
@@ -198,9 +172,6 @@
     </r>
   </si>
   <si>
-    <t>※標準時間：○○○○○</t>
-  </si>
-  <si>
     <t>御社指定場所に常駐</t>
   </si>
   <si>
@@ -253,10 +224,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>{$START_DATE$} ～ {$END_DATE$}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>{$ADDRESS$}</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -265,19 +232,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>{$ITEM_NAME$}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>{$CLIENT_COMPANY_NAME$}御中　</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本単価：</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>￥{$ITEM_PRICE$}人/月</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -309,6 +264,53 @@
       </rPr>
       <t/>
     </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>No</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>．</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>{$QUOTATION_NO$}</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{$ITEM_NAME$}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本単価：</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>￥{$ITEM_PRICE$}人/月</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{$START_DATE$} ～ {$END_DATE$}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※標準時間：{$MIN_HOUR$}/{$MAX_HOUR$}</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -628,6 +630,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,9 +650,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -952,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -965,25 +967,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H2" s="3" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -991,61 +993,61 @@
         <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="G6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="G7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="G8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="G9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="G10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -1054,221 +1056,221 @@
     </row>
     <row r="16" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
+      <c r="A20" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
     </row>
     <row r="21" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="18"/>
+      <c r="A21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="19"/>
       <c r="C21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="22"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="14"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="22"/>
+      <c r="G23" s="16"/>
       <c r="H23" s="14"/>
       <c r="I23" s="15"/>
     </row>
     <row r="24" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="22"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="14"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="22"/>
+      <c r="G24" s="16"/>
       <c r="H24" s="14"/>
       <c r="I24" s="15"/>
     </row>
     <row r="25" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="22"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="14"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="22"/>
+      <c r="G25" s="16"/>
       <c r="H25" s="14"/>
       <c r="I25" s="15"/>
     </row>
     <row r="26" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="22"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="14"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="22"/>
+      <c r="G26" s="16"/>
       <c r="H26" s="14"/>
       <c r="I26" s="15"/>
     </row>
     <row r="27" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+    </row>
+    <row r="28" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-    </row>
-    <row r="28" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-    </row>
-    <row r="29" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
+      <c r="C30" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+    </row>
+    <row r="31" spans="1:9" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B31" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C31" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-    </row>
-    <row r="30" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-    </row>
-    <row r="31" spans="1:9" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="16">
